--- a/Smoke/DataSource - Emision Hogar No Enlatada.xlsx
+++ b/Smoke/DataSource - Emision Hogar No Enlatada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Smoke\Smoke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8B9941-F84E-46B8-8B23-943BD1671BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612356BA-4460-4EC3-B81D-15D72007B912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasenia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>NroCuenta</t>
   </si>
@@ -107,12 +101,6 @@
     <t>NvaLocalidad</t>
   </si>
   <si>
-    <t>Ambiente</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Básico</t>
   </si>
   <si>
@@ -122,40 +110,20 @@
     <t>VIAMONTE</t>
   </si>
   <si>
-    <t>su</t>
-  </si>
-  <si>
     <t>Casa en PB o Depto hasta 1er piso</t>
-  </si>
-  <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>gw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,18 +143,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -216,7 +180,7 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2">
-            <v>608</v>
+            <v>610</v>
           </cell>
         </row>
       </sheetData>
@@ -490,151 +454,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K2" s="1">
+        <f>[1]DatosHogar!$A$2</f>
+        <v>610</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3">
-        <f>[1]DatosHogar!$A$2</f>
-        <v>608</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0E1AEB6F-A494-4A1A-9AE3-CFB855A662CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>